--- a/Bin/cehuaxlsx/ObjView.xlsx
+++ b/Bin/cehuaxlsx/ObjView.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsSdito\TabelControl\Bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TableControl\Bin\cehuaxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,6 +36,14 @@
   </si>
   <si>
     <t>c003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,36 +398,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Bin/cehuaxlsx/ObjView.xlsx
+++ b/Bin/cehuaxlsx/ObjView.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TableControl\Bin\cehuaxlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TableControl\Bin\cehuaxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,14 +36,6 @@
   </si>
   <si>
     <t>c003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currentHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,54 +390,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
